--- a/data/trans_dic/P16A20-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A20-Provincia-trans_dic.xlsx
@@ -685,7 +685,7 @@
         <v>0.04117760495559829</v>
       </c>
       <c r="J4" s="5" t="n">
-        <v>0.06252303468154029</v>
+        <v>0.06252303468154027</v>
       </c>
       <c r="K4" s="5" t="n">
         <v>0.005814002521524237</v>
@@ -717,31 +717,31 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.005202954314527917</v>
+        <v>0.005189344183956938</v>
       </c>
       <c r="G5" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.003619447797027918</v>
+        <v>0.003633601533833462</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.02292033083272646</v>
+        <v>0.02333879093513511</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.04307896318470892</v>
+        <v>0.04421062561007304</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.001813954046533681</v>
+        <v>0.001782498079051655</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.001853930350736208</v>
+        <v>0.002001349292292396</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.01195651684792742</v>
+        <v>0.0121257634615992</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.02646192245852053</v>
+        <v>0.02716551826485161</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.01852176406072289</v>
+        <v>0.01859637418491213</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.01929018470342611</v>
+        <v>0.01900837237011602</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.01995286888298561</v>
+        <v>0.01732062754684259</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.03101882405565813</v>
+        <v>0.02978214249688141</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.02747749534209422</v>
+        <v>0.02942148824523651</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.03113455391882486</v>
+        <v>0.03157576273729329</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.07039335527177534</v>
+        <v>0.06870085775362944</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.08413802166578167</v>
+        <v>0.08688117642981219</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.01570451017505601</v>
+        <v>0.01566678367510311</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.01698351878583</v>
+        <v>0.02065200501324941</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.03650440064007344</v>
+        <v>0.03781872157053574</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.05208114307268016</v>
+        <v>0.05185690375136476</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.03303112645280683</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.0598013481326938</v>
+        <v>0.05980134813269379</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.006021523156562397</v>
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.002090012848761245</v>
+        <v>0.002090632941334295</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.001878133303009811</v>
+        <v>0.001856939208231975</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.00174319358836992</v>
+        <v>0.001721413093736006</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.003776339101605685</v>
+        <v>0.003905026480949448</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.001780205876985219</v>
+        <v>0.001773236080147847</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.02449809517703573</v>
+        <v>0.02448648198389358</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.01997723469095569</v>
+        <v>0.01867429646799603</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.04193395508945831</v>
+        <v>0.04539165772641218</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.002093900063774413</v>
+        <v>0.002921903199421961</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.015589776755659</v>
+        <v>0.01449791537134715</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.01173169590455193</v>
+        <v>0.01212367969915615</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.02577829398809193</v>
+        <v>0.02607123978958147</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.01892862999924649</v>
+        <v>0.01704927575134197</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.01969819747960187</v>
+        <v>0.01599943023143956</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.01599388193024321</v>
+        <v>0.01581980023304709</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.02396035378233925</v>
+        <v>0.02589647245835865</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.01593676016988699</v>
+        <v>0.01523914269995068</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.06515045823569066</v>
+        <v>0.06258527095485042</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.05349867860860563</v>
+        <v>0.05086401834327606</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.08151192157184904</v>
+        <v>0.08157058650707374</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.01289176982074318</v>
+        <v>0.01319360410915286</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.03676134781206378</v>
+        <v>0.03663572650081392</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.03025481681305926</v>
+        <v>0.03033202254142769</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.04700850693353963</v>
+        <v>0.04859358386872477</v>
       </c>
     </row>
     <row r="10">
@@ -969,7 +969,7 @@
         <v>0.0228445772790936</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>0.0452701364895538</v>
+        <v>0.04527013648955378</v>
       </c>
     </row>
     <row r="11">
@@ -987,31 +987,31 @@
         <v>0</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.005640324632860339</v>
+        <v>0.005579324103718697</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.002902849843370628</v>
+        <v>0.002897716972761551</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.01117328862021059</v>
+        <v>0.009139916706642251</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.0219192776773936</v>
+        <v>0.02225490981192428</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.05318787552167983</v>
+        <v>0.05133096519207336</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.002902960898476201</v>
+        <v>0.002838013101948597</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.004814899773293723</v>
+        <v>0.004734367019694483</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.01236882178536459</v>
+        <v>0.01322790330192426</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.03328253911631726</v>
+        <v>0.03254535935898625</v>
       </c>
     </row>
     <row r="12">
@@ -1022,38 +1022,38 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.01907400956627245</v>
+        <v>0.02116392593702324</v>
       </c>
       <c r="D12" s="5" t="inlineStr"/>
       <c r="E12" s="5" t="n">
-        <v>0.01625084769229993</v>
+        <v>0.01607748975194604</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.02952530894821679</v>
+        <v>0.02837221901498875</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.02794879938277028</v>
+        <v>0.02586190619515244</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.04936732415634877</v>
+        <v>0.04626886005543377</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.07099995785440064</v>
+        <v>0.06895030207780971</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.096229404853719</v>
+        <v>0.09982445481394775</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.01895040619368497</v>
+        <v>0.01728193640898553</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.02450227900742998</v>
+        <v>0.02529461823356207</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.03642701636624839</v>
+        <v>0.03794168564764011</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.05984348522658529</v>
+        <v>0.05783435609978715</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>0.08749965303741639</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.07793580981912653</v>
+        <v>0.07793580981912654</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.005223436010409803</v>
@@ -1115,7 +1115,7 @@
         <v>0</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.002454786064501322</v>
+        <v>0.002464078056392614</v>
       </c>
       <c r="E14" s="5" t="inlineStr"/>
       <c r="F14" s="5" t="n">
@@ -1125,25 +1125,25 @@
         <v>0</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.03816878587626034</v>
+        <v>0.03873671665845674</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.06092310663756002</v>
+        <v>0.06151705660615724</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.05763677687906205</v>
+        <v>0.05882015437966916</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.001309183062521226</v>
+        <v>0.00131908231501291</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.02227938165499995</v>
+        <v>0.02379161690273567</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.03086670884864407</v>
+        <v>0.03112704024252395</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.03135442476630988</v>
+        <v>0.03251646882630697</v>
       </c>
     </row>
     <row r="15">
@@ -1154,38 +1154,38 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.01878529566565471</v>
+        <v>0.01729686203037823</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.02318988858475259</v>
+        <v>0.02050361512298212</v>
       </c>
       <c r="E15" s="5" t="inlineStr"/>
       <c r="F15" s="5" t="n">
-        <v>0.0101920901133271</v>
+        <v>0.010950992257382</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.01784409883161143</v>
+        <v>0.01804725396806092</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.08430590556209036</v>
+        <v>0.08687420378034313</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.1191311237477647</v>
+        <v>0.1220297812971896</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.1001579563563998</v>
+        <v>0.10149760302735</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.01313312917940575</v>
+        <v>0.01301552208325967</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.04927567873692374</v>
+        <v>0.05024905435962945</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.06286557984932833</v>
+        <v>0.06252140591773953</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.05709038570008471</v>
+        <v>0.0579555516032544</v>
       </c>
     </row>
     <row r="16">
@@ -1221,7 +1221,7 @@
         <v>0.05028532502308301</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.08692645655618784</v>
+        <v>0.08692645655618783</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.005929791651063231</v>
@@ -1244,36 +1244,36 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.003900202801299146</v>
+        <v>0.003926838116724534</v>
       </c>
       <c r="D17" s="5" t="inlineStr"/>
       <c r="E17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.006636329327301083</v>
+        <v>0.006356345704771655</v>
       </c>
       <c r="G17" s="5" t="inlineStr"/>
       <c r="H17" s="5" t="n">
-        <v>0.01907425145348957</v>
+        <v>0.02239759538520569</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.02825884695076549</v>
+        <v>0.02538861505954801</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.0654674104440864</v>
+        <v>0.06700874188989049</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.001958960171301744</v>
+        <v>0.001950135266015703</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.01155346145599317</v>
+        <v>0.01156854617855011</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.01464898355755836</v>
+        <v>0.01358052522236862</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.04161492032224291</v>
+        <v>0.04149617153266411</v>
       </c>
     </row>
     <row r="18">
@@ -1284,36 +1284,36 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.03278861547282944</v>
+        <v>0.03226792876623975</v>
       </c>
       <c r="D18" s="5" t="inlineStr"/>
       <c r="E18" s="5" t="n">
-        <v>0.02241654377646191</v>
+        <v>0.02255154113081164</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.05353979481664594</v>
+        <v>0.05763282376524533</v>
       </c>
       <c r="G18" s="5" t="inlineStr"/>
       <c r="H18" s="5" t="n">
-        <v>0.0755726620680597</v>
+        <v>0.07517059141022979</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.09016016055237058</v>
+        <v>0.08446657669630482</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.1167578533620781</v>
+        <v>0.1152299015290314</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.01595829611457323</v>
+        <v>0.01597276954859205</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.03976568871725018</v>
+        <v>0.04058692397704387</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.04753938251108526</v>
+        <v>0.04819641292031688</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.07385276960987397</v>
+        <v>0.07549162593161994</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>0.02496819705234525</v>
       </c>
       <c r="N19" s="5" t="n">
-        <v>0.05436525920826898</v>
+        <v>0.05436525920826899</v>
       </c>
     </row>
     <row r="20">
@@ -1378,32 +1378,32 @@
         <v>0</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.003641198424947114</v>
+        <v>0.003614668819865524</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.001839812591187538</v>
+        <v>0.002849261586045459</v>
       </c>
       <c r="G20" s="5" t="inlineStr"/>
       <c r="H20" s="5" t="n">
-        <v>0.01440863958262651</v>
+        <v>0.01390418909514399</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.01910261251270818</v>
+        <v>0.01893637855433933</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.07818103197530954</v>
+        <v>0.07906589075837457</v>
       </c>
       <c r="K20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.008766953489336107</v>
+        <v>0.007629269762559373</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.01363346894296269</v>
+        <v>0.01426434569484077</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.04303049509008183</v>
+        <v>0.04249301959382243</v>
       </c>
     </row>
     <row r="21">
@@ -1414,38 +1414,38 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.02135963002432994</v>
+        <v>0.02461100678956748</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.01856617924278699</v>
+        <v>0.0187146702757458</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.03121123102331465</v>
+        <v>0.03086737910711757</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.01974557928614219</v>
+        <v>0.02106652116968539</v>
       </c>
       <c r="G21" s="5" t="inlineStr"/>
       <c r="H21" s="5" t="n">
-        <v>0.05364756773404853</v>
+        <v>0.054994138438433</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.06600251322812395</v>
+        <v>0.06778954542956277</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.1309680414252473</v>
+        <v>0.1313478286788596</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.0108550244677688</v>
+        <v>0.009961060566465368</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.03184934024490674</v>
+        <v>0.03044757068558072</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.04135330435750463</v>
+        <v>0.0408955715487687</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.06959519299271208</v>
+        <v>0.06982084014404176</v>
       </c>
     </row>
     <row r="22">
@@ -1493,7 +1493,7 @@
         <v>0.02039753121656404</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.07261432030965217</v>
+        <v>0.07261432030965219</v>
       </c>
     </row>
     <row r="23">
@@ -1511,31 +1511,31 @@
         <v>0</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.009866055063108987</v>
+        <v>0.009176825595579974</v>
       </c>
       <c r="G23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.02874191530256113</v>
+        <v>0.029509328423142</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.02311319762363797</v>
+        <v>0.02351388617237242</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.1044097138753775</v>
+        <v>0.1028927373672155</v>
       </c>
       <c r="K23" s="5" t="n">
         <v>0</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.01585512059830923</v>
+        <v>0.01574337873420385</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.01318677417673657</v>
+        <v>0.01424249799331032</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.06073652129841828</v>
+        <v>0.06105053787758605</v>
       </c>
     </row>
     <row r="24">
@@ -1547,37 +1547,37 @@
       </c>
       <c r="C24" s="5" t="inlineStr"/>
       <c r="D24" s="5" t="n">
-        <v>0.008952166608908544</v>
+        <v>0.007528564146144008</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.01262436550280921</v>
+        <v>0.01107636554910192</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.03633002362258053</v>
+        <v>0.0355632791518463</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.00742357327585263</v>
+        <v>0.005967942571889664</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.06369067809293789</v>
+        <v>0.06168478471726074</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.05393865432823677</v>
+        <v>0.05332112496489962</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.1444754480415646</v>
+        <v>0.1452079123041343</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.004206784709144413</v>
+        <v>0.003736596527267105</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.03364620034751165</v>
+        <v>0.033024606817955</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.02958506623367461</v>
+        <v>0.03109178749706864</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.08537360522007528</v>
+        <v>0.08678415015366422</v>
       </c>
     </row>
     <row r="25">
@@ -1601,7 +1601,7 @@
         <v>0.003979405837371881</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.01475308140265535</v>
+        <v>0.01475308140265536</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.009095075913209769</v>
@@ -1636,38 +1636,38 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.001274639083122342</v>
+        <v>0.001266235271512908</v>
       </c>
       <c r="D26" s="5" t="inlineStr"/>
       <c r="E26" s="5" t="n">
-        <v>0.001177230598737975</v>
+        <v>0.001179420134107475</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.007759712557055031</v>
+        <v>0.007465431750673868</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.003997852327779379</v>
+        <v>0.003919969377881368</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.01308787078146936</v>
+        <v>0.0129752634060542</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.02616325209541586</v>
+        <v>0.02608382393668398</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.05679262064256044</v>
+        <v>0.05518136049413003</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.003335919452053749</v>
+        <v>0.003211768180535051</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.006678153631562593</v>
+        <v>0.00662420987052318</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.01512144047829886</v>
+        <v>0.01483609454481909</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.0344473532036766</v>
+        <v>0.03507155998810663</v>
       </c>
     </row>
     <row r="27">
@@ -1678,38 +1678,38 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.01273450172683789</v>
+        <v>0.0108707231268167</v>
       </c>
       <c r="D27" s="5" t="inlineStr"/>
       <c r="E27" s="5" t="n">
-        <v>0.01176206217123335</v>
+        <v>0.01064035469839783</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.02429607042030155</v>
+        <v>0.02410979713148502</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.0180243634191601</v>
+        <v>0.01873738142306358</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.03510744824368681</v>
+        <v>0.03520273517139302</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.05579128606931993</v>
+        <v>0.05500584722457686</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.08746551542063434</v>
+        <v>0.08611920625412472</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.01138196326551589</v>
+        <v>0.01139417312299123</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.01802591382840671</v>
+        <v>0.01793850051061385</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.03119950469545128</v>
+        <v>0.03102947099179643</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.0516245773511913</v>
+        <v>0.05285396258825099</v>
       </c>
     </row>
     <row r="28">
@@ -1745,7 +1745,7 @@
         <v>0.04391016616018439</v>
       </c>
       <c r="J28" s="5" t="n">
-        <v>0.08335939018949527</v>
+        <v>0.08335939018949524</v>
       </c>
       <c r="K28" s="5" t="n">
         <v>0.004992683250538844</v>
@@ -1757,7 +1757,7 @@
         <v>0.02448702030884812</v>
       </c>
       <c r="N28" s="5" t="n">
-        <v>0.04935247601522098</v>
+        <v>0.049352476015221</v>
       </c>
     </row>
     <row r="29">
@@ -1768,40 +1768,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.0026362524286757</v>
+        <v>0.002614435593765683</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.001183357458395933</v>
+        <v>0.001148836522976584</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.002457876952140602</v>
+        <v>0.002451862050430793</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.009490426092679763</v>
+        <v>0.009850761454614766</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.003391280361682762</v>
+        <v>0.003302504445240993</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.02837819079844674</v>
+        <v>0.02807869117532977</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.03722838677037966</v>
+        <v>0.03728095033833351</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.07564579918247535</v>
+        <v>0.07616482588294896</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.003440422952687366</v>
+        <v>0.003505247300488199</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.01566128265475742</v>
+        <v>0.0157646202844638</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.02085968541148665</v>
+        <v>0.02096009120129991</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.04508302511540447</v>
+        <v>0.04515796549293816</v>
       </c>
     </row>
     <row r="30">
@@ -1812,40 +1812,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.007299205830375028</v>
+        <v>0.007122860897009029</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.004764239899436434</v>
+        <v>0.004637166010440964</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.006812800104598631</v>
+        <v>0.007043768335075613</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.01785674746800205</v>
+        <v>0.0178347658486354</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.008469660939762112</v>
+        <v>0.008365341556381946</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.04189306408618267</v>
+        <v>0.04085140210407929</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.05102867192285026</v>
+        <v>0.05127260756408346</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.09057722051449342</v>
+        <v>0.09136920961432299</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.006830873441746001</v>
+        <v>0.006899424838783807</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.02250917192163862</v>
+        <v>0.02270727511248639</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.02850994058823742</v>
+        <v>0.02861783367497479</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.05406271006467305</v>
+        <v>0.05434837223615735</v>
       </c>
     </row>
     <row r="31">
@@ -2129,31 +2129,31 @@
         <v>0</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>1659</v>
+        <v>1655</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>1015</v>
+        <v>1019</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>6617</v>
+        <v>6738</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>13616</v>
+        <v>13973</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>968</v>
+        <v>952</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>1061</v>
+        <v>1146</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>6964</v>
+        <v>7063</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>16801</v>
+        <v>17248</v>
       </c>
     </row>
     <row r="7">
@@ -2164,40 +2164,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>5057</v>
+        <v>5077</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>5636</v>
+        <v>5554</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>5861</v>
+        <v>5088</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>9890</v>
+        <v>9496</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>7167</v>
+        <v>7674</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>8727</v>
+        <v>8851</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>20323</v>
+        <v>19834</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>26593</v>
+        <v>27460</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>8384</v>
+        <v>8364</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>9723</v>
+        <v>11823</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>21262</v>
+        <v>22028</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>33067</v>
+        <v>32924</v>
       </c>
     </row>
     <row r="8">
@@ -2303,37 +2303,37 @@
         <v>1031</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>949</v>
+        <v>939</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>876</v>
+        <v>865</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>2000</v>
+        <v>2068</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>897</v>
+        <v>894</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>12806</v>
+        <v>12800</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>10450</v>
+        <v>9768</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>22863</v>
+        <v>24748</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>2088</v>
+        <v>2913</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>16030</v>
+        <v>14908</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>12033</v>
+        <v>12435</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>27708</v>
+        <v>28023</v>
       </c>
     </row>
     <row r="11">
@@ -2344,40 +2344,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>9333</v>
+        <v>8407</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>9958</v>
+        <v>8088</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>8038</v>
+        <v>7951</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>12691</v>
+        <v>13716</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>8031</v>
+        <v>7680</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>34056</v>
+        <v>32715</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>27984</v>
+        <v>26606</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>44441</v>
+        <v>44473</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>12853</v>
+        <v>13154</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>37800</v>
+        <v>37671</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>31031</v>
+        <v>31110</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>50528</v>
+        <v>52232</v>
       </c>
     </row>
     <row r="12">
@@ -2487,31 +2487,31 @@
         <v>0</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1782</v>
+        <v>1763</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>3810</v>
+        <v>3117</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>7372</v>
+        <v>7485</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>18955</v>
+        <v>18293</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1899</v>
+        <v>1857</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>3198</v>
+        <v>3144</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>8100</v>
+        <v>8663</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>22378</v>
+        <v>21883</v>
       </c>
     </row>
     <row r="15">
@@ -2522,38 +2522,38 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6082</v>
+        <v>6748</v>
       </c>
       <c r="D15" s="6" t="inlineStr"/>
       <c r="E15" s="6" t="n">
-        <v>5177</v>
+        <v>5122</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9330</v>
+        <v>8965</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>9374</v>
+        <v>8674</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>16835</v>
+        <v>15779</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>23878</v>
+        <v>23189</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>34294</v>
+        <v>35576</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>12398</v>
+        <v>11307</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>16273</v>
+        <v>16799</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>23855</v>
+        <v>24847</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>40237</v>
+        <v>38886</v>
       </c>
     </row>
     <row r="16">
@@ -2659,7 +2659,7 @@
         <v>0</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>918</v>
+        <v>922</v>
       </c>
       <c r="E18" s="6" t="inlineStr"/>
       <c r="F18" s="6" t="n">
@@ -2669,25 +2669,25 @@
         <v>0</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>14808</v>
+        <v>15029</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>23594</v>
+        <v>23825</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>24320</v>
+        <v>24820</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>956</v>
+        <v>963</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>16976</v>
+        <v>18128</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>23374</v>
+        <v>23571</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>24930</v>
+        <v>25854</v>
       </c>
     </row>
     <row r="19">
@@ -2698,38 +2698,38 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>6738</v>
+        <v>6204</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>8673</v>
+        <v>7668</v>
       </c>
       <c r="E19" s="6" t="inlineStr"/>
       <c r="F19" s="6" t="n">
-        <v>3803</v>
+        <v>4086</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>6628</v>
+        <v>6704</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>32708</v>
+        <v>33705</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>46137</v>
+        <v>47260</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>42263</v>
+        <v>42828</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>9589</v>
+        <v>9503</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>37546</v>
+        <v>38288</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>47605</v>
+        <v>47344</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>45393</v>
+        <v>46081</v>
       </c>
     </row>
     <row r="20">
@@ -2832,36 +2832,36 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>793</v>
+        <v>798</v>
       </c>
       <c r="D22" s="6" t="inlineStr"/>
       <c r="E22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1365</v>
+        <v>1307</v>
       </c>
       <c r="G22" s="6" t="inlineStr"/>
       <c r="H22" s="6" t="n">
-        <v>4189</v>
+        <v>4918</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>6177</v>
+        <v>5550</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>14850</v>
+        <v>15200</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>805</v>
+        <v>801</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>4994</v>
+        <v>5000</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>6296</v>
+        <v>5837</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>17998</v>
+        <v>17947</v>
       </c>
     </row>
     <row r="23">
@@ -2872,36 +2872,36 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>6666</v>
+        <v>6560</v>
       </c>
       <c r="D23" s="6" t="inlineStr"/>
       <c r="E23" s="6" t="n">
-        <v>4735</v>
+        <v>4763</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>11011</v>
+        <v>11853</v>
       </c>
       <c r="G23" s="6" t="inlineStr"/>
       <c r="H23" s="6" t="n">
-        <v>16595</v>
+        <v>16507</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>19708</v>
+        <v>18463</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>26485</v>
+        <v>26138</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>6558</v>
+        <v>6564</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>17187</v>
+        <v>17542</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>20433</v>
+        <v>20715</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>31941</v>
+        <v>32650</v>
       </c>
     </row>
     <row r="24">
@@ -3010,32 +3010,32 @@
         <v>0</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>498</v>
+        <v>771</v>
       </c>
       <c r="G26" s="6" t="inlineStr"/>
       <c r="H26" s="6" t="n">
-        <v>4022</v>
+        <v>3881</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>5217</v>
+        <v>5172</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>20620</v>
+        <v>20854</v>
       </c>
       <c r="K26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>4849</v>
+        <v>4220</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>7311</v>
+        <v>7649</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>22998</v>
+        <v>22711</v>
       </c>
     </row>
     <row r="27">
@@ -3046,38 +3046,38 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>5784</v>
+        <v>6665</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5087</v>
+        <v>5127</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>8212</v>
+        <v>8122</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>5345</v>
+        <v>5703</v>
       </c>
       <c r="G27" s="6" t="inlineStr"/>
       <c r="H27" s="6" t="n">
-        <v>14975</v>
+        <v>15351</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>18026</v>
+        <v>18514</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>34543</v>
+        <v>34643</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>5959</v>
+        <v>5468</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>17617</v>
+        <v>16841</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>22175</v>
+        <v>21930</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>37196</v>
+        <v>37316</v>
       </c>
     </row>
     <row r="28">
@@ -3187,31 +3187,31 @@
         <v>0</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>7100</v>
+        <v>6604</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>19943</v>
+        <v>20475</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>15978</v>
+        <v>16255</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>80535</v>
+        <v>79365</v>
       </c>
       <c r="K30" s="6" t="n">
         <v>0</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>21510</v>
+        <v>21358</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>17774</v>
+        <v>19197</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>90559</v>
+        <v>91028</v>
       </c>
     </row>
     <row r="31">
@@ -3223,37 +3223,37 @@
       </c>
       <c r="C31" s="6" t="inlineStr"/>
       <c r="D31" s="6" t="n">
-        <v>5933</v>
+        <v>4990</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>8289</v>
+        <v>7272</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>26146</v>
+        <v>25594</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>4738</v>
+        <v>3809</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>44192</v>
+        <v>42800</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>37287</v>
+        <v>36861</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>111439</v>
+        <v>112004</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>5272</v>
+        <v>4683</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>45646</v>
+        <v>44803</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>39876</v>
+        <v>41907</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>127294</v>
+        <v>129397</v>
       </c>
     </row>
     <row r="32">
@@ -3356,38 +3356,38 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="D34" s="6" t="inlineStr"/>
       <c r="E34" s="6" t="n">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>6193</v>
+        <v>5958</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>3132</v>
+        <v>3071</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>10767</v>
+        <v>10674</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>21615</v>
+        <v>21550</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>47138</v>
+        <v>45801</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>5092</v>
+        <v>4902</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>10683</v>
+        <v>10596</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>24266</v>
+        <v>23808</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>56083</v>
+        <v>57099</v>
       </c>
     </row>
     <row r="35">
@@ -3398,38 +3398,38 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>9459</v>
+        <v>8075</v>
       </c>
       <c r="D35" s="6" t="inlineStr"/>
       <c r="E35" s="6" t="n">
-        <v>9158</v>
+        <v>8284</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>19390</v>
+        <v>19241</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>14122</v>
+        <v>14681</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>28882</v>
+        <v>28960</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>46093</v>
+        <v>45444</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>72597</v>
+        <v>71479</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>17372</v>
+        <v>17391</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>28835</v>
+        <v>28695</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>50067</v>
+        <v>49795</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>84049</v>
+        <v>86050</v>
       </c>
     </row>
     <row r="36">
@@ -3532,40 +3532,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>8635</v>
+        <v>8564</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>4048</v>
+        <v>3930</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>8343</v>
+        <v>8322</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>33518</v>
+        <v>34791</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>11460</v>
+        <v>11160</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>100666</v>
+        <v>99603</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>131958</v>
+        <v>132144</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>282275</v>
+        <v>284212</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>22895</v>
+        <v>23326</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>109135</v>
+        <v>109855</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>144743</v>
+        <v>145440</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>327452</v>
+        <v>327997</v>
       </c>
     </row>
     <row r="39">
@@ -3576,40 +3576,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
+        <v>23331</v>
+      </c>
+      <c r="D39" s="6" t="n">
+        <v>15865</v>
+      </c>
+      <c r="E39" s="6" t="n">
         <v>23909</v>
       </c>
-      <c r="D39" s="6" t="n">
-        <v>16299</v>
-      </c>
-      <c r="E39" s="6" t="n">
-        <v>23125</v>
-      </c>
       <c r="F39" s="6" t="n">
-        <v>63066</v>
+        <v>62988</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>28621</v>
+        <v>28268</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>148607</v>
+        <v>144912</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>180873</v>
+        <v>181738</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>337993</v>
+        <v>340948</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>45458</v>
+        <v>45914</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>156855</v>
+        <v>158235</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>197827</v>
+        <v>198576</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>392675</v>
+        <v>394749</v>
       </c>
     </row>
     <row r="40">
